--- a/Region_with_population_population_density.xlsx
+++ b/Region_with_population_population_density.xlsx
@@ -482,12 +482,8 @@
       <c r="M2" t="n">
         <v>22739</v>
       </c>
-      <c r="N2" t="n">
-        <v>16541.34</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10010983</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
